--- a/Data/Processing/2024-02-02/VAIBHAVGBL.xlsx
+++ b/Data/Processing/2024-02-02/VAIBHAVGBL.xlsx
@@ -5016,7 +5016,7 @@
         <v>308.55</v>
       </c>
       <c r="C90">
-        <v>309.64</v>
+        <v>309.65</v>
       </c>
       <c r="D90">
         <v>302.45</v>
@@ -5037,7 +5037,7 @@
         <v>-1.82</v>
       </c>
       <c r="J90">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="K90">
         <v>-2.02</v>
